--- a/Estados Financieros/Balance general/Cartón y papel/BG_800200934.xlsx
+++ b/Estados Financieros/Balance general/Cartón y papel/BG_800200934.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documentos\BG Carton y papel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarenLorenaGarciaHer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54F8691-D68F-4F3C-A512-22DE2BC62C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG_800200934" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="97">
   <si>
     <t>BALANCE GENERAL</t>
   </si>
@@ -316,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1167,9 +1168,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1177,6 +1178,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P98"/>
   <sheetViews>
@@ -6339,102 +6343,102 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="javascript:__doPostBack('GridBalance','Select$0')"/>
-    <hyperlink ref="A4" r:id="rId2" display="javascript:__doPostBack('GridBalance','Select$1')"/>
-    <hyperlink ref="A5" r:id="rId3" display="javascript:__doPostBack('GridBalance','Select$2')"/>
-    <hyperlink ref="A6" r:id="rId4" display="javascript:__doPostBack('GridBalance','Select$3')"/>
-    <hyperlink ref="A7" r:id="rId5" display="javascript:__doPostBack('GridBalance','Select$4')"/>
-    <hyperlink ref="A8" r:id="rId6" display="javascript:__doPostBack('GridBalance','Select$5')"/>
-    <hyperlink ref="A9" r:id="rId7" display="javascript:__doPostBack('GridBalance','Select$6')"/>
-    <hyperlink ref="A10" r:id="rId8" display="javascript:__doPostBack('GridBalance','Select$7')"/>
-    <hyperlink ref="A11" r:id="rId9" display="javascript:__doPostBack('GridBalance','Select$8')"/>
-    <hyperlink ref="A12" r:id="rId10" display="javascript:__doPostBack('GridBalance','Select$9')"/>
-    <hyperlink ref="A13" r:id="rId11" display="javascript:__doPostBack('GridBalance','Select$10')"/>
-    <hyperlink ref="A14" r:id="rId12" display="javascript:__doPostBack('GridBalance','Select$11')"/>
-    <hyperlink ref="A15" r:id="rId13" display="javascript:__doPostBack('GridBalance','Select$12')"/>
-    <hyperlink ref="A16" r:id="rId14" display="javascript:__doPostBack('GridBalance','Select$13')"/>
-    <hyperlink ref="A17" r:id="rId15" display="javascript:__doPostBack('GridBalance','Select$14')"/>
-    <hyperlink ref="A18" r:id="rId16" display="javascript:__doPostBack('GridBalance','Select$15')"/>
-    <hyperlink ref="A19" r:id="rId17" display="javascript:__doPostBack('GridBalance','Select$16')"/>
-    <hyperlink ref="A20" r:id="rId18" display="javascript:__doPostBack('GridBalance','Select$17')"/>
-    <hyperlink ref="A21" r:id="rId19" display="javascript:__doPostBack('GridBalance','Select$18')"/>
-    <hyperlink ref="A22" r:id="rId20" display="javascript:__doPostBack('GridBalance','Select$19')"/>
-    <hyperlink ref="A23" r:id="rId21" display="javascript:__doPostBack('GridBalance','Select$20')"/>
-    <hyperlink ref="A24" r:id="rId22" display="javascript:__doPostBack('GridBalance','Select$21')"/>
-    <hyperlink ref="A25" r:id="rId23" display="javascript:__doPostBack('GridBalance','Select$22')"/>
-    <hyperlink ref="A26" r:id="rId24" display="javascript:__doPostBack('GridBalance','Select$23')"/>
-    <hyperlink ref="A27" r:id="rId25" display="javascript:__doPostBack('GridBalance','Select$24')"/>
-    <hyperlink ref="A28" r:id="rId26" display="javascript:__doPostBack('GridBalance','Select$25')"/>
-    <hyperlink ref="A29" r:id="rId27" display="javascript:__doPostBack('GridBalance','Select$26')"/>
-    <hyperlink ref="A30" r:id="rId28" display="javascript:__doPostBack('GridBalance','Select$27')"/>
-    <hyperlink ref="A31" r:id="rId29" display="javascript:__doPostBack('GridBalance','Select$28')"/>
-    <hyperlink ref="A32" r:id="rId30" display="javascript:__doPostBack('GridBalance','Select$29')"/>
-    <hyperlink ref="A33" r:id="rId31" display="javascript:__doPostBack('GridBalance','Select$30')"/>
-    <hyperlink ref="A34" r:id="rId32" display="javascript:__doPostBack('GridBalance','Select$31')"/>
-    <hyperlink ref="A35" r:id="rId33" display="javascript:__doPostBack('GridBalance','Select$32')"/>
-    <hyperlink ref="A36" r:id="rId34" display="javascript:__doPostBack('GridBalance','Select$33')"/>
-    <hyperlink ref="A37" r:id="rId35" display="javascript:__doPostBack('GridBalance','Select$34')"/>
-    <hyperlink ref="A38" r:id="rId36" display="javascript:__doPostBack('GridBalance','Select$35')"/>
-    <hyperlink ref="A39" r:id="rId37" display="javascript:__doPostBack('GridBalance','Select$36')"/>
-    <hyperlink ref="A40" r:id="rId38" display="javascript:__doPostBack('GridBalance','Select$37')"/>
-    <hyperlink ref="A41" r:id="rId39" display="javascript:__doPostBack('GridBalance','Select$38')"/>
-    <hyperlink ref="A42" r:id="rId40" display="javascript:__doPostBack('GridBalance','Select$39')"/>
-    <hyperlink ref="A43" r:id="rId41" display="javascript:__doPostBack('GridBalance','Select$40')"/>
-    <hyperlink ref="A44" r:id="rId42" display="javascript:__doPostBack('GridBalance','Select$41')"/>
-    <hyperlink ref="A45" r:id="rId43" display="javascript:__doPostBack('GridBalance','Select$42')"/>
-    <hyperlink ref="A46" r:id="rId44" display="javascript:__doPostBack('GridBalance','Select$43')"/>
-    <hyperlink ref="A47" r:id="rId45" display="javascript:__doPostBack('GridBalance','Select$44')"/>
-    <hyperlink ref="A48" r:id="rId46" display="javascript:__doPostBack('GridBalance','Select$45')"/>
-    <hyperlink ref="A49" r:id="rId47" display="javascript:__doPostBack('GridBalance','Select$46')"/>
-    <hyperlink ref="A50" r:id="rId48" display="javascript:__doPostBack('GridBalance','Select$47')"/>
-    <hyperlink ref="A51" r:id="rId49" display="javascript:__doPostBack('GridBalance','Select$48')"/>
-    <hyperlink ref="A52" r:id="rId50" display="javascript:__doPostBack('GridBalance','Select$49')"/>
-    <hyperlink ref="A53" r:id="rId51" display="javascript:__doPostBack('GridBalance','Select$50')"/>
-    <hyperlink ref="A54" r:id="rId52" display="javascript:__doPostBack('GridBalance','Select$51')"/>
-    <hyperlink ref="A55" r:id="rId53" display="javascript:__doPostBack('GridBalance','Select$52')"/>
-    <hyperlink ref="A56" r:id="rId54" display="javascript:__doPostBack('GridBalance','Select$53')"/>
-    <hyperlink ref="A57" r:id="rId55" display="javascript:__doPostBack('GridBalance','Select$54')"/>
-    <hyperlink ref="A58" r:id="rId56" display="javascript:__doPostBack('GridBalance','Select$55')"/>
-    <hyperlink ref="A59" r:id="rId57" display="javascript:__doPostBack('GridBalance','Select$56')"/>
-    <hyperlink ref="A60" r:id="rId58" display="javascript:__doPostBack('GridBalance','Select$57')"/>
-    <hyperlink ref="A61" r:id="rId59" display="javascript:__doPostBack('GridBalance','Select$58')"/>
-    <hyperlink ref="A62" r:id="rId60" display="javascript:__doPostBack('GridBalance','Select$59')"/>
-    <hyperlink ref="A63" r:id="rId61" display="javascript:__doPostBack('GridBalance','Select$60')"/>
-    <hyperlink ref="A64" r:id="rId62" display="javascript:__doPostBack('GridBalance','Select$61')"/>
-    <hyperlink ref="A65" r:id="rId63" display="javascript:__doPostBack('GridBalance','Select$62')"/>
-    <hyperlink ref="A66" r:id="rId64" display="javascript:__doPostBack('GridBalance','Select$63')"/>
-    <hyperlink ref="A67" r:id="rId65" display="javascript:__doPostBack('GridBalance','Select$64')"/>
-    <hyperlink ref="A68" r:id="rId66" display="javascript:__doPostBack('GridBalance','Select$65')"/>
-    <hyperlink ref="A69" r:id="rId67" display="javascript:__doPostBack('GridBalance','Select$66')"/>
-    <hyperlink ref="A70" r:id="rId68" display="javascript:__doPostBack('GridBalance','Select$67')"/>
-    <hyperlink ref="A71" r:id="rId69" display="javascript:__doPostBack('GridBalance','Select$68')"/>
-    <hyperlink ref="A72" r:id="rId70" display="javascript:__doPostBack('GridBalance','Select$69')"/>
-    <hyperlink ref="A73" r:id="rId71" display="javascript:__doPostBack('GridBalance','Select$70')"/>
-    <hyperlink ref="A74" r:id="rId72" display="javascript:__doPostBack('GridBalance','Select$71')"/>
-    <hyperlink ref="A75" r:id="rId73" display="javascript:__doPostBack('GridBalance','Select$72')"/>
-    <hyperlink ref="A76" r:id="rId74" display="javascript:__doPostBack('GridBalance','Select$73')"/>
-    <hyperlink ref="A77" r:id="rId75" display="javascript:__doPostBack('GridBalance','Select$74')"/>
-    <hyperlink ref="A78" r:id="rId76" display="javascript:__doPostBack('GridBalance','Select$75')"/>
-    <hyperlink ref="A79" r:id="rId77" display="javascript:__doPostBack('GridBalance','Select$76')"/>
-    <hyperlink ref="A80" r:id="rId78" display="javascript:__doPostBack('GridBalance','Select$77')"/>
-    <hyperlink ref="A81" r:id="rId79" display="javascript:__doPostBack('GridBalance','Select$78')"/>
-    <hyperlink ref="A82" r:id="rId80" display="javascript:__doPostBack('GridBalance','Select$79')"/>
-    <hyperlink ref="A83" r:id="rId81" display="javascript:__doPostBack('GridBalance','Select$80')"/>
-    <hyperlink ref="A84" r:id="rId82" display="javascript:__doPostBack('GridBalance','Select$81')"/>
-    <hyperlink ref="A85" r:id="rId83" display="javascript:__doPostBack('GridBalance','Select$82')"/>
-    <hyperlink ref="A86" r:id="rId84" display="javascript:__doPostBack('GridBalance','Select$83')"/>
-    <hyperlink ref="A87" r:id="rId85" display="javascript:__doPostBack('GridBalance','Select$84')"/>
-    <hyperlink ref="A88" r:id="rId86" display="javascript:__doPostBack('GridBalance','Select$85')"/>
-    <hyperlink ref="A89" r:id="rId87" display="javascript:__doPostBack('GridBalance','Select$86')"/>
-    <hyperlink ref="A90" r:id="rId88" display="javascript:__doPostBack('GridBalance','Select$87')"/>
-    <hyperlink ref="A91" r:id="rId89" display="javascript:__doPostBack('GridBalance','Select$88')"/>
-    <hyperlink ref="A92" r:id="rId90" display="javascript:__doPostBack('GridBalance','Select$89')"/>
-    <hyperlink ref="A93" r:id="rId91" display="javascript:__doPostBack('GridBalance','Select$90')"/>
-    <hyperlink ref="A94" r:id="rId92" display="javascript:__doPostBack('GridBalance','Select$91')"/>
-    <hyperlink ref="A95" r:id="rId93" display="javascript:__doPostBack('GridBalance','Select$92')"/>
-    <hyperlink ref="A96" r:id="rId94" display="javascript:__doPostBack('GridBalance','Select$93')"/>
-    <hyperlink ref="A97" r:id="rId95" display="javascript:__doPostBack('GridBalance','Select$94')"/>
-    <hyperlink ref="A98" r:id="rId96" display="javascript:__doPostBack('GridBalance','Select$95')"/>
+    <hyperlink ref="A3" r:id="rId1" display="javascript:__doPostBack('GridBalance','Select$0')" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="javascript:__doPostBack('GridBalance','Select$1')" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" display="javascript:__doPostBack('GridBalance','Select$2')" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" display="javascript:__doPostBack('GridBalance','Select$3')" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" display="javascript:__doPostBack('GridBalance','Select$4')" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="javascript:__doPostBack('GridBalance','Select$5')" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" display="javascript:__doPostBack('GridBalance','Select$6')" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" display="javascript:__doPostBack('GridBalance','Select$7')" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" display="javascript:__doPostBack('GridBalance','Select$8')" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A12" r:id="rId10" display="javascript:__doPostBack('GridBalance','Select$9')" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" display="javascript:__doPostBack('GridBalance','Select$10')" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" r:id="rId12" display="javascript:__doPostBack('GridBalance','Select$11')" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" display="javascript:__doPostBack('GridBalance','Select$12')" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A16" r:id="rId14" display="javascript:__doPostBack('GridBalance','Select$13')" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A17" r:id="rId15" display="javascript:__doPostBack('GridBalance','Select$14')" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A18" r:id="rId16" display="javascript:__doPostBack('GridBalance','Select$15')" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A19" r:id="rId17" display="javascript:__doPostBack('GridBalance','Select$16')" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A20" r:id="rId18" display="javascript:__doPostBack('GridBalance','Select$17')" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A21" r:id="rId19" display="javascript:__doPostBack('GridBalance','Select$18')" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId20" display="javascript:__doPostBack('GridBalance','Select$19')" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId21" display="javascript:__doPostBack('GridBalance','Select$20')" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId22" display="javascript:__doPostBack('GridBalance','Select$21')" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A25" r:id="rId23" display="javascript:__doPostBack('GridBalance','Select$22')" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A26" r:id="rId24" display="javascript:__doPostBack('GridBalance','Select$23')" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId25" display="javascript:__doPostBack('GridBalance','Select$24')" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A28" r:id="rId26" display="javascript:__doPostBack('GridBalance','Select$25')" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A29" r:id="rId27" display="javascript:__doPostBack('GridBalance','Select$26')" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A30" r:id="rId28" display="javascript:__doPostBack('GridBalance','Select$27')" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A31" r:id="rId29" display="javascript:__doPostBack('GridBalance','Select$28')" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A32" r:id="rId30" display="javascript:__doPostBack('GridBalance','Select$29')" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A33" r:id="rId31" display="javascript:__doPostBack('GridBalance','Select$30')" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A34" r:id="rId32" display="javascript:__doPostBack('GridBalance','Select$31')" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A35" r:id="rId33" display="javascript:__doPostBack('GridBalance','Select$32')" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A36" r:id="rId34" display="javascript:__doPostBack('GridBalance','Select$33')" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A37" r:id="rId35" display="javascript:__doPostBack('GridBalance','Select$34')" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A38" r:id="rId36" display="javascript:__doPostBack('GridBalance','Select$35')" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A39" r:id="rId37" display="javascript:__doPostBack('GridBalance','Select$36')" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A40" r:id="rId38" display="javascript:__doPostBack('GridBalance','Select$37')" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A41" r:id="rId39" display="javascript:__doPostBack('GridBalance','Select$38')" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A42" r:id="rId40" display="javascript:__doPostBack('GridBalance','Select$39')" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A43" r:id="rId41" display="javascript:__doPostBack('GridBalance','Select$40')" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A44" r:id="rId42" display="javascript:__doPostBack('GridBalance','Select$41')" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A45" r:id="rId43" display="javascript:__doPostBack('GridBalance','Select$42')" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A46" r:id="rId44" display="javascript:__doPostBack('GridBalance','Select$43')" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A47" r:id="rId45" display="javascript:__doPostBack('GridBalance','Select$44')" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A48" r:id="rId46" display="javascript:__doPostBack('GridBalance','Select$45')" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A49" r:id="rId47" display="javascript:__doPostBack('GridBalance','Select$46')" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A50" r:id="rId48" display="javascript:__doPostBack('GridBalance','Select$47')" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A51" r:id="rId49" display="javascript:__doPostBack('GridBalance','Select$48')" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A52" r:id="rId50" display="javascript:__doPostBack('GridBalance','Select$49')" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A53" r:id="rId51" display="javascript:__doPostBack('GridBalance','Select$50')" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A54" r:id="rId52" display="javascript:__doPostBack('GridBalance','Select$51')" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A55" r:id="rId53" display="javascript:__doPostBack('GridBalance','Select$52')" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A56" r:id="rId54" display="javascript:__doPostBack('GridBalance','Select$53')" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A57" r:id="rId55" display="javascript:__doPostBack('GridBalance','Select$54')" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A58" r:id="rId56" display="javascript:__doPostBack('GridBalance','Select$55')" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A59" r:id="rId57" display="javascript:__doPostBack('GridBalance','Select$56')" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A60" r:id="rId58" display="javascript:__doPostBack('GridBalance','Select$57')" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A61" r:id="rId59" display="javascript:__doPostBack('GridBalance','Select$58')" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A62" r:id="rId60" display="javascript:__doPostBack('GridBalance','Select$59')" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A63" r:id="rId61" display="javascript:__doPostBack('GridBalance','Select$60')" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A64" r:id="rId62" display="javascript:__doPostBack('GridBalance','Select$61')" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A65" r:id="rId63" display="javascript:__doPostBack('GridBalance','Select$62')" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A66" r:id="rId64" display="javascript:__doPostBack('GridBalance','Select$63')" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A67" r:id="rId65" display="javascript:__doPostBack('GridBalance','Select$64')" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A68" r:id="rId66" display="javascript:__doPostBack('GridBalance','Select$65')" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A69" r:id="rId67" display="javascript:__doPostBack('GridBalance','Select$66')" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A70" r:id="rId68" display="javascript:__doPostBack('GridBalance','Select$67')" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A71" r:id="rId69" display="javascript:__doPostBack('GridBalance','Select$68')" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A72" r:id="rId70" display="javascript:__doPostBack('GridBalance','Select$69')" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A73" r:id="rId71" display="javascript:__doPostBack('GridBalance','Select$70')" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A74" r:id="rId72" display="javascript:__doPostBack('GridBalance','Select$71')" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A75" r:id="rId73" display="javascript:__doPostBack('GridBalance','Select$72')" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A76" r:id="rId74" display="javascript:__doPostBack('GridBalance','Select$73')" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A77" r:id="rId75" display="javascript:__doPostBack('GridBalance','Select$74')" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A78" r:id="rId76" display="javascript:__doPostBack('GridBalance','Select$75')" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A79" r:id="rId77" display="javascript:__doPostBack('GridBalance','Select$76')" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A80" r:id="rId78" display="javascript:__doPostBack('GridBalance','Select$77')" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A81" r:id="rId79" display="javascript:__doPostBack('GridBalance','Select$78')" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A82" r:id="rId80" display="javascript:__doPostBack('GridBalance','Select$79')" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A83" r:id="rId81" display="javascript:__doPostBack('GridBalance','Select$80')" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A84" r:id="rId82" display="javascript:__doPostBack('GridBalance','Select$81')" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A85" r:id="rId83" display="javascript:__doPostBack('GridBalance','Select$82')" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A86" r:id="rId84" display="javascript:__doPostBack('GridBalance','Select$83')" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A87" r:id="rId85" display="javascript:__doPostBack('GridBalance','Select$84')" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A88" r:id="rId86" display="javascript:__doPostBack('GridBalance','Select$85')" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A89" r:id="rId87" display="javascript:__doPostBack('GridBalance','Select$86')" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A90" r:id="rId88" display="javascript:__doPostBack('GridBalance','Select$87')" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A91" r:id="rId89" display="javascript:__doPostBack('GridBalance','Select$88')" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A92" r:id="rId90" display="javascript:__doPostBack('GridBalance','Select$89')" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A93" r:id="rId91" display="javascript:__doPostBack('GridBalance','Select$90')" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A94" r:id="rId92" display="javascript:__doPostBack('GridBalance','Select$91')" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A95" r:id="rId93" display="javascript:__doPostBack('GridBalance','Select$92')" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A96" r:id="rId94" display="javascript:__doPostBack('GridBalance','Select$93')" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A97" r:id="rId95" display="javascript:__doPostBack('GridBalance','Select$94')" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A98" r:id="rId96" display="javascript:__doPostBack('GridBalance','Select$95')" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId97"/>
@@ -6454,9 +6458,9 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6471,11 +6475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:CU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6792,8 +6796,8 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
+      <c r="G2" s="6">
+        <v>0</v>
       </c>
       <c r="H2" s="9">
         <v>6613.12</v>
@@ -6804,11 +6808,11 @@
       <c r="J2" s="7">
         <v>55463.49</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>2</v>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
       </c>
       <c r="M2" s="5">
         <v>4380.3100000000004</v>
@@ -6825,8 +6829,8 @@
       <c r="Q2" s="5">
         <v>19046.63</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>2</v>
+      <c r="R2" s="3">
+        <v>0</v>
       </c>
       <c r="S2" s="6">
         <v>0</v>
@@ -6837,20 +6841,20 @@
       <c r="U2" s="9">
         <v>69486.84</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>2</v>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
       </c>
       <c r="AA2" s="5">
         <v>24641.72</v>
@@ -6858,17 +6862,17 @@
       <c r="AB2" s="9">
         <v>24641.72</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>2</v>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>0</v>
       </c>
       <c r="AG2" s="12">
         <v>151824.87</v>
@@ -6915,14 +6919,14 @@
       <c r="AU2" s="6">
         <v>0</v>
       </c>
-      <c r="AV2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>2</v>
+      <c r="AV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>0</v>
       </c>
       <c r="AY2" s="12">
         <v>122071.46</v>
@@ -6936,29 +6940,29 @@
       <c r="BB2" s="7">
         <v>46951.07</v>
       </c>
-      <c r="BC2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>2</v>
+      <c r="BC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>0</v>
       </c>
       <c r="BI2" s="6">
         <v>0</v>
       </c>
-      <c r="BJ2" s="3" t="s">
-        <v>2</v>
+      <c r="BJ2" s="3">
+        <v>0</v>
       </c>
       <c r="BK2" s="5">
         <v>175648.53</v>
@@ -6969,17 +6973,17 @@
       <c r="BM2" s="9">
         <v>4659.5200000000004</v>
       </c>
-      <c r="BN2" s="10" t="s">
-        <v>2</v>
+      <c r="BN2" s="10">
+        <v>0</v>
       </c>
       <c r="BO2" s="9">
         <v>4652.34</v>
       </c>
-      <c r="BP2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>2</v>
+      <c r="BP2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="6">
+        <v>0</v>
       </c>
       <c r="BR2" s="3">
         <v>0</v>
@@ -6987,8 +6991,8 @@
       <c r="BS2" s="10">
         <v>0</v>
       </c>
-      <c r="BT2" s="10" t="s">
-        <v>2</v>
+      <c r="BT2" s="10">
+        <v>0</v>
       </c>
       <c r="BU2" s="12">
         <v>235953.72</v>
@@ -7005,11 +7009,11 @@
       <c r="BY2" s="6">
         <v>0</v>
       </c>
-      <c r="BZ2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>2</v>
+      <c r="BZ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="6">
+        <v>0</v>
       </c>
       <c r="CB2" s="3">
         <v>0</v>
@@ -7017,8 +7021,8 @@
       <c r="CC2" s="6">
         <v>0</v>
       </c>
-      <c r="CD2" s="3" t="s">
-        <v>2</v>
+      <c r="CD2" s="3">
+        <v>0</v>
       </c>
       <c r="CE2" s="12">
         <v>2140.0700000000002</v>
@@ -7035,8 +7039,8 @@
       <c r="CI2" s="6">
         <v>0</v>
       </c>
-      <c r="CJ2" s="3" t="s">
-        <v>2</v>
+      <c r="CJ2" s="3">
+        <v>0</v>
       </c>
       <c r="CK2" s="9">
         <v>28511.17</v>
@@ -7050,17 +7054,17 @@
       <c r="CN2" s="10">
         <v>0</v>
       </c>
-      <c r="CO2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP2" s="10" t="s">
-        <v>2</v>
+      <c r="CO2" s="10">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="10">
+        <v>0</v>
       </c>
       <c r="CQ2" s="9">
         <v>6190.44</v>
       </c>
-      <c r="CR2" s="10" t="s">
-        <v>2</v>
+      <c r="CR2" s="10">
+        <v>0</v>
       </c>
       <c r="CS2" s="6">
         <v>0</v>
@@ -7079,17 +7083,17 @@
       <c r="C3" s="35">
         <v>800200934</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
+      <c r="D3" s="3">
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <v>6760.18</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
       </c>
       <c r="H3" s="9">
         <v>6760.18</v>
@@ -7100,20 +7104,20 @@
       <c r="J3" s="7">
         <v>84083.4</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>2</v>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
       </c>
       <c r="N3" s="9">
         <v>84083.4</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>2</v>
+      <c r="O3" s="6">
+        <v>0</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -7121,8 +7125,8 @@
       <c r="Q3" s="5">
         <v>20403.349999999999</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>2</v>
+      <c r="R3" s="3">
+        <v>0</v>
       </c>
       <c r="S3" s="6">
         <v>0</v>
@@ -7133,20 +7137,20 @@
       <c r="U3" s="9">
         <v>20403.349999999999</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>2</v>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
       </c>
       <c r="AA3" s="5">
         <v>17630.57</v>
@@ -7154,17 +7158,17 @@
       <c r="AB3" s="9">
         <v>17630.57</v>
       </c>
-      <c r="AC3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>2</v>
+      <c r="AC3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0</v>
       </c>
       <c r="AG3" s="12">
         <v>130747.14</v>
@@ -7211,14 +7215,14 @@
       <c r="AU3" s="6">
         <v>0</v>
       </c>
-      <c r="AV3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>2</v>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>0</v>
       </c>
       <c r="AY3" s="12">
         <v>114233.32</v>
@@ -7232,20 +7236,20 @@
       <c r="BB3" s="7">
         <v>197094.55</v>
       </c>
-      <c r="BC3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>2</v>
+      <c r="BC3" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="6">
+        <v>0</v>
       </c>
       <c r="BH3" s="7">
         <v>4137.76</v>
@@ -7253,8 +7257,8 @@
       <c r="BI3" s="6">
         <v>966.33</v>
       </c>
-      <c r="BJ3" s="3" t="s">
-        <v>2</v>
+      <c r="BJ3" s="3">
+        <v>0</v>
       </c>
       <c r="BK3" s="5">
         <v>3101.63</v>
@@ -7265,26 +7269,26 @@
       <c r="BM3" s="9">
         <v>2171</v>
       </c>
-      <c r="BN3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT3" s="10" t="s">
-        <v>2</v>
+      <c r="BN3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="10">
+        <v>0</v>
       </c>
       <c r="BU3" s="12">
         <v>207471.27</v>
@@ -7301,11 +7305,11 @@
       <c r="BY3" s="6">
         <v>0</v>
       </c>
-      <c r="BZ3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="6" t="s">
-        <v>2</v>
+      <c r="BZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="6">
+        <v>0</v>
       </c>
       <c r="CB3" s="3">
         <v>0</v>
@@ -7313,8 +7317,8 @@
       <c r="CC3" s="6">
         <v>0</v>
       </c>
-      <c r="CD3" s="3" t="s">
-        <v>2</v>
+      <c r="CD3" s="3">
+        <v>0</v>
       </c>
       <c r="CE3" s="12">
         <v>2020.84</v>
@@ -7331,8 +7335,8 @@
       <c r="CI3" s="6">
         <v>0</v>
       </c>
-      <c r="CJ3" s="3" t="s">
-        <v>2</v>
+      <c r="CJ3" s="3">
+        <v>0</v>
       </c>
       <c r="CK3" s="9">
         <v>28511.17</v>
@@ -7346,17 +7350,17 @@
       <c r="CN3" s="10">
         <v>0</v>
       </c>
-      <c r="CO3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP3" s="10" t="s">
-        <v>2</v>
+      <c r="CO3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="10">
+        <v>0</v>
       </c>
       <c r="CQ3" s="9">
         <v>5876.26</v>
       </c>
-      <c r="CR3" s="10" t="s">
-        <v>2</v>
+      <c r="CR3" s="10">
+        <v>0</v>
       </c>
       <c r="CS3" s="6">
         <v>0</v>
@@ -7375,17 +7379,17 @@
       <c r="C4" s="35">
         <v>800200934</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
+      <c r="D4" s="3">
+        <v>0</v>
       </c>
       <c r="E4" s="5">
         <v>12124.35</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2</v>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <v>12124.35</v>
@@ -7396,20 +7400,20 @@
       <c r="J4" s="7">
         <v>92817.279999999999</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>2</v>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <v>92817.279999999999</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>2</v>
+      <c r="O4" s="6">
+        <v>0</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -7417,8 +7421,8 @@
       <c r="Q4" s="5">
         <v>15569.99</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>2</v>
+      <c r="R4" s="3">
+        <v>0</v>
       </c>
       <c r="S4" s="6">
         <v>0</v>
@@ -7429,20 +7433,20 @@
       <c r="U4" s="9">
         <v>15569.99</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>2</v>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
       </c>
       <c r="AA4" s="5">
         <v>17765.68</v>
@@ -7450,17 +7454,17 @@
       <c r="AB4" s="9">
         <v>17765.68</v>
       </c>
-      <c r="AC4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>2</v>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0</v>
       </c>
       <c r="AG4" s="12">
         <v>139228.22</v>
@@ -7507,14 +7511,14 @@
       <c r="AU4" s="6">
         <v>0</v>
       </c>
-      <c r="AV4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>2</v>
+      <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>0</v>
       </c>
       <c r="AY4" s="12">
         <v>114526.71</v>
@@ -7528,20 +7532,20 @@
       <c r="BB4" s="7">
         <v>208448.43</v>
       </c>
-      <c r="BC4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>2</v>
+      <c r="BC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>0</v>
       </c>
       <c r="BH4" s="7">
         <v>3631.33</v>
@@ -7561,26 +7565,26 @@
       <c r="BM4" s="9">
         <v>3599.77</v>
       </c>
-      <c r="BN4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT4" s="10" t="s">
-        <v>2</v>
+      <c r="BN4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="10">
+        <v>0</v>
       </c>
       <c r="BU4" s="12">
         <v>220477.54</v>
@@ -7597,11 +7601,11 @@
       <c r="BY4" s="6">
         <v>0</v>
       </c>
-      <c r="BZ4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA4" s="6" t="s">
-        <v>2</v>
+      <c r="BZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="6">
+        <v>0</v>
       </c>
       <c r="CB4" s="3">
         <v>0</v>
@@ -7609,8 +7613,8 @@
       <c r="CC4" s="6">
         <v>0</v>
       </c>
-      <c r="CD4" s="3" t="s">
-        <v>2</v>
+      <c r="CD4" s="3">
+        <v>0</v>
       </c>
       <c r="CE4" s="12">
         <v>1123.25</v>
@@ -7627,8 +7631,8 @@
       <c r="CI4" s="6">
         <v>0</v>
       </c>
-      <c r="CJ4" s="3" t="s">
-        <v>2</v>
+      <c r="CJ4" s="3">
+        <v>0</v>
       </c>
       <c r="CK4" s="9">
         <v>28511.17</v>
@@ -7642,17 +7646,17 @@
       <c r="CN4" s="10">
         <v>0</v>
       </c>
-      <c r="CO4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP4" s="10" t="s">
-        <v>2</v>
+      <c r="CO4" s="10">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="10">
+        <v>0</v>
       </c>
       <c r="CQ4" s="9">
         <v>2824.49</v>
       </c>
-      <c r="CR4" s="10" t="s">
-        <v>2</v>
+      <c r="CR4" s="10">
+        <v>0</v>
       </c>
       <c r="CS4" s="6">
         <v>0</v>
@@ -7677,11 +7681,11 @@
       <c r="E5" s="5">
         <v>5612.97</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2</v>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
       </c>
       <c r="H5" s="9">
         <v>5612.97</v>
@@ -7692,14 +7696,14 @@
       <c r="J5" s="7">
         <v>67063.240000000005</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>2</v>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
       </c>
       <c r="N5" s="9">
         <v>67063.240000000005</v>
@@ -7713,8 +7717,8 @@
       <c r="Q5" s="5">
         <v>13683.74</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>2</v>
+      <c r="R5" s="3">
+        <v>0</v>
       </c>
       <c r="S5" s="6">
         <v>0</v>
@@ -7725,20 +7729,20 @@
       <c r="U5" s="9">
         <v>14609.49</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>2</v>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
       </c>
       <c r="AA5" s="5">
         <v>17134.14</v>
@@ -7746,17 +7750,17 @@
       <c r="AB5" s="9">
         <v>17134.14</v>
       </c>
-      <c r="AC5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>2</v>
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0</v>
       </c>
       <c r="AG5" s="12">
         <v>104419.83</v>
@@ -7803,14 +7807,14 @@
       <c r="AU5" s="6">
         <v>0</v>
       </c>
-      <c r="AV5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>2</v>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>0</v>
       </c>
       <c r="AY5" s="12">
         <v>97818.57</v>
@@ -7827,17 +7831,17 @@
       <c r="BC5" s="6">
         <v>0</v>
       </c>
-      <c r="BD5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG5" s="6" t="s">
-        <v>2</v>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="6">
+        <v>0</v>
       </c>
       <c r="BH5" s="3">
         <v>0</v>
@@ -7845,8 +7849,8 @@
       <c r="BI5" s="6">
         <v>235.44</v>
       </c>
-      <c r="BJ5" s="3" t="s">
-        <v>2</v>
+      <c r="BJ5" s="3">
+        <v>0</v>
       </c>
       <c r="BK5" s="6">
         <v>0</v>
@@ -7857,26 +7861,26 @@
       <c r="BM5" s="9">
         <v>1076.52</v>
       </c>
-      <c r="BN5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT5" s="10" t="s">
-        <v>2</v>
+      <c r="BN5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="10">
+        <v>0</v>
       </c>
       <c r="BU5" s="12">
         <v>167572.14000000001</v>
@@ -7887,8 +7891,8 @@
       <c r="BW5" s="6">
         <v>0</v>
       </c>
-      <c r="BX5" s="3" t="s">
-        <v>2</v>
+      <c r="BX5" s="3">
+        <v>0</v>
       </c>
       <c r="BY5" s="6">
         <v>0</v>
@@ -7905,8 +7909,8 @@
       <c r="CC5" s="6">
         <v>0</v>
       </c>
-      <c r="CD5" s="3" t="s">
-        <v>2</v>
+      <c r="CD5" s="3">
+        <v>0</v>
       </c>
       <c r="CE5" s="12">
         <v>1510.75</v>
@@ -7923,8 +7927,8 @@
       <c r="CI5" s="6">
         <v>0</v>
       </c>
-      <c r="CJ5" s="3" t="s">
-        <v>2</v>
+      <c r="CJ5" s="3">
+        <v>0</v>
       </c>
       <c r="CK5" s="9">
         <v>28511.17</v>
@@ -7938,17 +7942,17 @@
       <c r="CN5" s="10">
         <v>0</v>
       </c>
-      <c r="CO5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP5" s="10" t="s">
-        <v>2</v>
+      <c r="CO5" s="10">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="10">
+        <v>0</v>
       </c>
       <c r="CQ5" s="9">
         <v>4294.63</v>
       </c>
-      <c r="CR5" s="10" t="s">
-        <v>2</v>
+      <c r="CR5" s="10">
+        <v>0</v>
       </c>
       <c r="CS5" s="6">
         <v>0</v>
@@ -7967,17 +7971,17 @@
       <c r="C6" s="35">
         <v>800200934</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
+      <c r="D6" s="3">
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>4465.2700000000004</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>2</v>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
       </c>
       <c r="H6" s="9">
         <v>4465.2700000000004</v>
@@ -7988,20 +7992,20 @@
       <c r="J6" s="7">
         <v>51710.01</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>2</v>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
       </c>
       <c r="N6" s="9">
         <v>51710.01</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>2</v>
+      <c r="O6" s="6">
+        <v>0</v>
       </c>
       <c r="P6" s="3">
         <v>0</v>
@@ -8009,8 +8013,8 @@
       <c r="Q6" s="5">
         <v>6002.01</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>2</v>
+      <c r="R6" s="3">
+        <v>0</v>
       </c>
       <c r="S6" s="6">
         <v>0</v>
@@ -8021,20 +8025,20 @@
       <c r="U6" s="9">
         <v>6002.01</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>2</v>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
       </c>
       <c r="AA6" s="5">
         <v>11072.18</v>
@@ -8042,17 +8046,17 @@
       <c r="AB6" s="9">
         <v>11072.18</v>
       </c>
-      <c r="AC6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="10" t="s">
-        <v>2</v>
+      <c r="AC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0</v>
       </c>
       <c r="AG6" s="12">
         <v>73843.91</v>
@@ -8099,14 +8103,14 @@
       <c r="AU6" s="6">
         <v>0</v>
       </c>
-      <c r="AV6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>2</v>
+      <c r="AV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>0</v>
       </c>
       <c r="AY6" s="12">
         <v>91389.14</v>
@@ -8120,20 +8124,20 @@
       <c r="BB6" s="7">
         <v>129682.13</v>
       </c>
-      <c r="BC6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG6" s="6" t="s">
-        <v>2</v>
+      <c r="BC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>0</v>
       </c>
       <c r="BH6" s="3">
         <v>0</v>
@@ -8141,8 +8145,8 @@
       <c r="BI6" s="6">
         <v>87.17</v>
       </c>
-      <c r="BJ6" s="3" t="s">
-        <v>2</v>
+      <c r="BJ6" s="3">
+        <v>0</v>
       </c>
       <c r="BK6" s="6">
         <v>0</v>
@@ -8153,26 +8157,26 @@
       <c r="BM6" s="9">
         <v>1421.34</v>
       </c>
-      <c r="BN6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT6" s="10" t="s">
-        <v>2</v>
+      <c r="BN6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="10">
+        <v>0</v>
       </c>
       <c r="BU6" s="12">
         <v>135686.79999999999</v>
@@ -8189,11 +8193,11 @@
       <c r="BY6" s="6">
         <v>0</v>
       </c>
-      <c r="BZ6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA6" s="6" t="s">
-        <v>2</v>
+      <c r="BZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="6">
+        <v>0</v>
       </c>
       <c r="CB6" s="3">
         <v>0</v>
@@ -8201,8 +8205,8 @@
       <c r="CC6" s="6">
         <v>0</v>
       </c>
-      <c r="CD6" s="3" t="s">
-        <v>2</v>
+      <c r="CD6" s="3">
+        <v>0</v>
       </c>
       <c r="CE6" s="12">
         <v>1078.3900000000001</v>
@@ -8219,8 +8223,8 @@
       <c r="CI6" s="6">
         <v>0</v>
       </c>
-      <c r="CJ6" s="3" t="s">
-        <v>2</v>
+      <c r="CJ6" s="3">
+        <v>0</v>
       </c>
       <c r="CK6" s="9">
         <v>28511.17</v>
@@ -8234,17 +8238,17 @@
       <c r="CN6" s="10">
         <v>0</v>
       </c>
-      <c r="CO6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP6" s="10" t="s">
-        <v>2</v>
+      <c r="CO6" s="10">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="10">
+        <v>0</v>
       </c>
       <c r="CQ6" s="9">
-        <v>-6197.35</v>
-      </c>
-      <c r="CR6" s="10" t="s">
-        <v>2</v>
+        <v>6197.35</v>
+      </c>
+      <c r="CR6" s="10">
+        <v>0</v>
       </c>
       <c r="CS6" s="6">
         <v>0</v>
@@ -8263,17 +8267,17 @@
       <c r="C7" s="35">
         <v>800200934</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
+      <c r="D7" s="3">
+        <v>0</v>
       </c>
       <c r="E7" s="5">
         <v>5311.03</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>2</v>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
       </c>
       <c r="H7" s="9">
         <v>5311.03</v>
@@ -8284,14 +8288,14 @@
       <c r="J7" s="7">
         <v>63847.74</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>2</v>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
       </c>
       <c r="N7" s="9">
         <v>63847.74</v>
@@ -8305,8 +8309,8 @@
       <c r="Q7" s="5">
         <v>4670.38</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>2</v>
+      <c r="R7" s="3">
+        <v>0</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
@@ -8317,20 +8321,20 @@
       <c r="U7" s="9">
         <v>4670.38</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>2</v>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
       </c>
       <c r="AA7" s="5">
         <v>21264.23</v>
@@ -8338,17 +8342,17 @@
       <c r="AB7" s="9">
         <v>21264.23</v>
       </c>
-      <c r="AC7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>2</v>
+      <c r="AC7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0</v>
       </c>
       <c r="AG7" s="12">
         <v>95185.97</v>
@@ -8395,14 +8399,14 @@
       <c r="AU7" s="6">
         <v>0</v>
       </c>
-      <c r="AV7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>2</v>
+      <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0</v>
       </c>
       <c r="AY7" s="12">
         <v>65755.460000000006</v>
@@ -8416,20 +8420,20 @@
       <c r="BB7" s="7">
         <v>128539.6</v>
       </c>
-      <c r="BC7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG7" s="6" t="s">
-        <v>2</v>
+      <c r="BC7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="6">
+        <v>0</v>
       </c>
       <c r="BH7" s="3">
         <v>0</v>
@@ -8437,8 +8441,8 @@
       <c r="BI7" s="6">
         <v>203.77</v>
       </c>
-      <c r="BJ7" s="3" t="s">
-        <v>2</v>
+      <c r="BJ7" s="3">
+        <v>0</v>
       </c>
       <c r="BK7" s="6">
         <v>0</v>
@@ -8449,17 +8453,17 @@
       <c r="BM7" s="9">
         <v>1319.13</v>
       </c>
-      <c r="BN7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ7" s="6" t="s">
-        <v>2</v>
+      <c r="BN7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="6">
+        <v>0</v>
       </c>
       <c r="BR7" s="3">
         <v>0</v>
@@ -8467,8 +8471,8 @@
       <c r="BS7" s="10">
         <v>0</v>
       </c>
-      <c r="BT7" s="10" t="s">
-        <v>2</v>
+      <c r="BT7" s="10">
+        <v>0</v>
       </c>
       <c r="BU7" s="12">
         <v>135098.47</v>
@@ -8485,11 +8489,11 @@
       <c r="BY7" s="6">
         <v>0</v>
       </c>
-      <c r="BZ7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA7" s="6" t="s">
-        <v>2</v>
+      <c r="BZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="6">
+        <v>0</v>
       </c>
       <c r="CB7" s="3">
         <v>0</v>
@@ -8497,8 +8501,8 @@
       <c r="CC7" s="6">
         <v>0</v>
       </c>
-      <c r="CD7" s="3" t="s">
-        <v>2</v>
+      <c r="CD7" s="3">
+        <v>0</v>
       </c>
       <c r="CE7" s="15">
         <v>872.22</v>
@@ -8515,8 +8519,8 @@
       <c r="CI7" s="6">
         <v>0</v>
       </c>
-      <c r="CJ7" s="3" t="s">
-        <v>2</v>
+      <c r="CJ7" s="3">
+        <v>0</v>
       </c>
       <c r="CK7" s="9">
         <v>28511.17</v>
@@ -8530,17 +8534,17 @@
       <c r="CN7" s="10">
         <v>0</v>
       </c>
-      <c r="CO7" s="10" t="s">
-        <v>2</v>
+      <c r="CO7" s="10">
+        <v>0</v>
       </c>
       <c r="CP7" s="9">
         <v>1145.4000000000001</v>
       </c>
       <c r="CQ7" s="9">
-        <v>-10725.33</v>
-      </c>
-      <c r="CR7" s="10" t="s">
-        <v>2</v>
+        <v>10725.33</v>
+      </c>
+      <c r="CR7" s="10">
+        <v>0</v>
       </c>
       <c r="CS7" s="6">
         <v>0</v>
@@ -8604,8 +8608,8 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>2</v>
+      <c r="S8" s="6">
+        <v>0</v>
       </c>
       <c r="T8" s="7">
         <v>11690.52</v>
@@ -8652,11 +8656,11 @@
       <c r="AH8" s="3">
         <v>0</v>
       </c>
-      <c r="AI8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>2</v>
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
       </c>
       <c r="AK8" s="5">
         <v>10771</v>
@@ -8664,11 +8668,11 @@
       <c r="AL8" s="7">
         <v>35835.370000000003</v>
       </c>
-      <c r="AM8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>2</v>
+      <c r="AM8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
       </c>
       <c r="AO8" s="6">
         <v>0</v>
@@ -8676,17 +8680,17 @@
       <c r="AP8" s="7">
         <v>2819.59</v>
       </c>
-      <c r="AQ8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>2</v>
+      <c r="AQ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>0</v>
       </c>
       <c r="AU8" s="6">
         <v>0</v>
@@ -8730,8 +8734,8 @@
       <c r="BH8" s="3">
         <v>0</v>
       </c>
-      <c r="BI8" s="6" t="s">
-        <v>2</v>
+      <c r="BI8" s="6">
+        <v>0</v>
       </c>
       <c r="BJ8" s="3">
         <v>0</v>
@@ -8805,11 +8809,11 @@
       <c r="CG8" s="6">
         <v>0</v>
       </c>
-      <c r="CH8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI8" s="6" t="s">
-        <v>2</v>
+      <c r="CH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="6">
+        <v>0</v>
       </c>
       <c r="CJ8" s="7">
         <v>28511.17</v>
@@ -8838,8 +8842,8 @@
       <c r="CR8" s="10">
         <v>327.64</v>
       </c>
-      <c r="CS8" s="6" t="s">
-        <v>2</v>
+      <c r="CS8" s="6">
+        <v>0</v>
       </c>
       <c r="CT8" s="14">
         <v>37039.42</v>
@@ -8900,8 +8904,8 @@
       <c r="R9" s="3">
         <v>30.04</v>
       </c>
-      <c r="S9" s="6" t="s">
-        <v>2</v>
+      <c r="S9" s="6">
+        <v>0</v>
       </c>
       <c r="T9" s="7">
         <v>1038.19</v>
@@ -8948,11 +8952,11 @@
       <c r="AH9" s="3">
         <v>0</v>
       </c>
-      <c r="AI9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>2</v>
+      <c r="AI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
       </c>
       <c r="AK9" s="5">
         <v>13327.7</v>
@@ -8960,11 +8964,11 @@
       <c r="AL9" s="7">
         <v>22648.400000000001</v>
       </c>
-      <c r="AM9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>2</v>
+      <c r="AM9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
       </c>
       <c r="AO9" s="6">
         <v>0</v>
@@ -8972,17 +8976,17 @@
       <c r="AP9" s="7">
         <v>3675.22</v>
       </c>
-      <c r="AQ9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>2</v>
+      <c r="AQ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>0</v>
       </c>
       <c r="AU9" s="6">
         <v>0</v>
@@ -9026,8 +9030,8 @@
       <c r="BH9" s="3">
         <v>213.12</v>
       </c>
-      <c r="BI9" s="6" t="s">
-        <v>2</v>
+      <c r="BI9" s="6">
+        <v>0</v>
       </c>
       <c r="BJ9" s="3">
         <v>113.7</v>
@@ -9101,11 +9105,11 @@
       <c r="CG9" s="6">
         <v>0</v>
       </c>
-      <c r="CH9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI9" s="6" t="s">
-        <v>2</v>
+      <c r="CH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="6">
+        <v>0</v>
       </c>
       <c r="CJ9" s="7">
         <v>28511.17</v>
@@ -9134,8 +9138,8 @@
       <c r="CR9" s="10">
         <v>959.35</v>
       </c>
-      <c r="CS9" s="6" t="s">
-        <v>2</v>
+      <c r="CS9" s="6">
+        <v>0</v>
       </c>
       <c r="CT9" s="14">
         <v>35978.660000000003</v>
@@ -9196,8 +9200,8 @@
       <c r="R10" s="3">
         <v>149.28</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>2</v>
+      <c r="S10" s="6">
+        <v>0</v>
       </c>
       <c r="T10" s="7">
         <v>1188.49</v>
@@ -9244,11 +9248,11 @@
       <c r="AH10" s="3">
         <v>0</v>
       </c>
-      <c r="AI10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>2</v>
+      <c r="AI10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0</v>
       </c>
       <c r="AK10" s="5">
         <v>14637.92</v>
@@ -9256,11 +9260,11 @@
       <c r="AL10" s="7">
         <v>20676.7</v>
       </c>
-      <c r="AM10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>2</v>
+      <c r="AM10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>0</v>
       </c>
       <c r="AO10" s="6">
         <v>0</v>
@@ -9268,17 +9272,17 @@
       <c r="AP10" s="7">
         <v>5301.67</v>
       </c>
-      <c r="AQ10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>2</v>
+      <c r="AQ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>0</v>
       </c>
       <c r="AU10" s="6">
         <v>0</v>
@@ -9322,8 +9326,8 @@
       <c r="BH10" s="3">
         <v>78.78</v>
       </c>
-      <c r="BI10" s="6" t="s">
-        <v>2</v>
+      <c r="BI10" s="6">
+        <v>0</v>
       </c>
       <c r="BJ10" s="3">
         <v>0</v>
@@ -9397,11 +9401,11 @@
       <c r="CG10" s="6">
         <v>0</v>
       </c>
-      <c r="CH10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI10" s="6" t="s">
-        <v>2</v>
+      <c r="CH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="6">
+        <v>0</v>
       </c>
       <c r="CJ10" s="7">
         <v>28511.17</v>
@@ -9430,8 +9434,8 @@
       <c r="CR10" s="10">
         <v>594.97</v>
       </c>
-      <c r="CS10" s="6" t="s">
-        <v>2</v>
+      <c r="CS10" s="6">
+        <v>0</v>
       </c>
       <c r="CT10" s="14">
         <v>40597.51</v>
@@ -9492,8 +9496,8 @@
       <c r="R11" s="3">
         <v>249.23</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>2</v>
+      <c r="S11" s="6">
+        <v>0</v>
       </c>
       <c r="T11" s="7">
         <v>4586.28</v>
@@ -9540,11 +9544,11 @@
       <c r="AH11" s="3">
         <v>0</v>
       </c>
-      <c r="AI11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>2</v>
+      <c r="AI11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
       </c>
       <c r="AK11" s="5">
         <v>2299.19</v>
@@ -9552,11 +9556,11 @@
       <c r="AL11" s="7">
         <v>13206.82</v>
       </c>
-      <c r="AM11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN11" s="3" t="s">
-        <v>2</v>
+      <c r="AM11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
       </c>
       <c r="AO11" s="6">
         <v>0</v>
@@ -9564,17 +9568,17 @@
       <c r="AP11" s="7">
         <v>5517.19</v>
       </c>
-      <c r="AQ11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>2</v>
+      <c r="AQ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>0</v>
       </c>
       <c r="AU11" s="6">
         <v>24.96</v>
@@ -9618,8 +9622,8 @@
       <c r="BH11" s="3">
         <v>0</v>
       </c>
-      <c r="BI11" s="6" t="s">
-        <v>2</v>
+      <c r="BI11" s="6">
+        <v>0</v>
       </c>
       <c r="BJ11" s="3">
         <v>0</v>
@@ -9693,11 +9697,11 @@
       <c r="CG11" s="6">
         <v>0</v>
       </c>
-      <c r="CH11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI11" s="6" t="s">
-        <v>2</v>
+      <c r="CH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="6">
+        <v>0</v>
       </c>
       <c r="CJ11" s="7">
         <v>28511.17</v>
@@ -9726,8 +9730,8 @@
       <c r="CR11" s="10">
         <v>135.88999999999999</v>
       </c>
-      <c r="CS11" s="6" t="s">
-        <v>2</v>
+      <c r="CS11" s="6">
+        <v>0</v>
       </c>
       <c r="CT11" s="14">
         <v>40006.36</v>
@@ -9788,8 +9792,8 @@
       <c r="R12" s="3">
         <v>375.34</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>2</v>
+      <c r="S12" s="6">
+        <v>0</v>
       </c>
       <c r="T12" s="7">
         <v>4001.56</v>
@@ -9836,11 +9840,11 @@
       <c r="AH12" s="3">
         <v>0</v>
       </c>
-      <c r="AI12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
-        <v>2</v>
+      <c r="AI12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0</v>
       </c>
       <c r="AK12" s="5">
         <v>4786.9399999999996</v>
@@ -9848,11 +9852,11 @@
       <c r="AL12" s="7">
         <v>16551.009999999998</v>
       </c>
-      <c r="AM12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN12" s="3" t="s">
-        <v>2</v>
+      <c r="AM12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>0</v>
       </c>
       <c r="AO12" s="6">
         <v>0</v>
@@ -9860,17 +9864,17 @@
       <c r="AP12" s="7">
         <v>5968.55</v>
       </c>
-      <c r="AQ12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>2</v>
+      <c r="AQ12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>0</v>
       </c>
       <c r="AU12" s="6">
         <v>11.8</v>
@@ -9914,8 +9918,8 @@
       <c r="BH12" s="3">
         <v>0</v>
       </c>
-      <c r="BI12" s="6" t="s">
-        <v>2</v>
+      <c r="BI12" s="6">
+        <v>0</v>
       </c>
       <c r="BJ12" s="3">
         <v>0</v>
@@ -9989,11 +9993,11 @@
       <c r="CG12" s="6">
         <v>0</v>
       </c>
-      <c r="CH12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI12" s="6" t="s">
-        <v>2</v>
+      <c r="CH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="6">
+        <v>0</v>
       </c>
       <c r="CJ12" s="7">
         <v>28511.17</v>
@@ -10022,8 +10026,8 @@
       <c r="CR12" s="10">
         <v>612.6</v>
       </c>
-      <c r="CS12" s="6" t="s">
-        <v>2</v>
+      <c r="CS12" s="6">
+        <v>0</v>
       </c>
       <c r="CT12" s="14">
         <v>39898.89</v>
@@ -10084,8 +10088,8 @@
       <c r="R13" s="3">
         <v>193.66</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>2</v>
+      <c r="S13" s="6">
+        <v>0</v>
       </c>
       <c r="T13" s="7">
         <v>1008.03</v>
@@ -10132,11 +10136,11 @@
       <c r="AH13" s="3">
         <v>0</v>
       </c>
-      <c r="AI13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="3" t="s">
-        <v>2</v>
+      <c r="AI13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0</v>
       </c>
       <c r="AK13" s="5">
         <v>5602.19</v>
@@ -10144,11 +10148,11 @@
       <c r="AL13" s="7">
         <v>11604.71</v>
       </c>
-      <c r="AM13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN13" s="3" t="s">
-        <v>2</v>
+      <c r="AM13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0</v>
       </c>
       <c r="AO13" s="6">
         <v>0</v>
@@ -10156,17 +10160,17 @@
       <c r="AP13" s="7">
         <v>6325.25</v>
       </c>
-      <c r="AQ13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>2</v>
+      <c r="AQ13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>0</v>
       </c>
       <c r="AU13" s="6">
         <v>352.23</v>
@@ -10210,8 +10214,8 @@
       <c r="BH13" s="3">
         <v>0</v>
       </c>
-      <c r="BI13" s="6" t="s">
-        <v>2</v>
+      <c r="BI13" s="6">
+        <v>0</v>
       </c>
       <c r="BJ13" s="3">
         <v>0</v>
@@ -10285,11 +10289,11 @@
       <c r="CG13" s="6">
         <v>0</v>
       </c>
-      <c r="CH13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI13" s="6" t="s">
-        <v>2</v>
+      <c r="CH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="6">
+        <v>0</v>
       </c>
       <c r="CJ13" s="7">
         <v>28511.17</v>
@@ -10318,8 +10322,8 @@
       <c r="CR13" s="10">
         <v>617.67999999999995</v>
       </c>
-      <c r="CS13" s="6" t="s">
-        <v>2</v>
+      <c r="CS13" s="6">
+        <v>0</v>
       </c>
       <c r="CT13" s="14">
         <v>44104.72</v>
@@ -10380,8 +10384,8 @@
       <c r="R14" s="3">
         <v>471.24</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>2</v>
+      <c r="S14" s="6">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>875.74</v>
@@ -10428,11 +10432,11 @@
       <c r="AH14" s="3">
         <v>0</v>
       </c>
-      <c r="AI14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>2</v>
+      <c r="AI14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0</v>
       </c>
       <c r="AK14" s="5">
         <v>14102.6</v>
@@ -10440,11 +10444,11 @@
       <c r="AL14" s="7">
         <v>8275.48</v>
       </c>
-      <c r="AM14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN14" s="3" t="s">
-        <v>2</v>
+      <c r="AM14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
       </c>
       <c r="AO14" s="6">
         <v>0</v>
@@ -10452,17 +10456,17 @@
       <c r="AP14" s="7">
         <v>5908.42</v>
       </c>
-      <c r="AQ14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>2</v>
+      <c r="AQ14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>0</v>
       </c>
       <c r="AU14" s="5">
         <v>1642.65</v>
@@ -10506,8 +10510,8 @@
       <c r="BH14" s="3">
         <v>88.52</v>
       </c>
-      <c r="BI14" s="6" t="s">
-        <v>2</v>
+      <c r="BI14" s="6">
+        <v>0</v>
       </c>
       <c r="BJ14" s="3">
         <v>62.83</v>
@@ -10581,11 +10585,11 @@
       <c r="CG14" s="6">
         <v>0</v>
       </c>
-      <c r="CH14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI14" s="6" t="s">
-        <v>2</v>
+      <c r="CH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="6">
+        <v>0</v>
       </c>
       <c r="CJ14" s="7">
         <v>28511.17</v>
@@ -10614,8 +10618,8 @@
       <c r="CR14" s="10">
         <v>30.93</v>
       </c>
-      <c r="CS14" s="6" t="s">
-        <v>2</v>
+      <c r="CS14" s="6">
+        <v>0</v>
       </c>
       <c r="CT14" s="14">
         <v>53709.23</v>
@@ -10676,8 +10680,8 @@
       <c r="R15" s="3">
         <v>664.24</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>2</v>
+      <c r="S15" s="6">
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>500.96</v>
@@ -10724,11 +10728,11 @@
       <c r="AH15" s="3">
         <v>42.75</v>
       </c>
-      <c r="AI15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
-        <v>2</v>
+      <c r="AI15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0</v>
       </c>
       <c r="AK15" s="5">
         <v>20030.849999999999</v>
@@ -10736,11 +10740,11 @@
       <c r="AL15" s="7">
         <v>10498.75</v>
       </c>
-      <c r="AM15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN15" s="3" t="s">
-        <v>2</v>
+      <c r="AM15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
       </c>
       <c r="AO15" s="6">
         <v>0</v>
@@ -10748,17 +10752,17 @@
       <c r="AP15" s="7">
         <v>2453.4699999999998</v>
       </c>
-      <c r="AQ15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT15" s="3" t="s">
-        <v>2</v>
+      <c r="AQ15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>0</v>
       </c>
       <c r="AU15" s="6">
         <v>895.48</v>
@@ -10802,8 +10806,8 @@
       <c r="BH15" s="3">
         <v>0</v>
       </c>
-      <c r="BI15" s="6" t="s">
-        <v>2</v>
+      <c r="BI15" s="6">
+        <v>0</v>
       </c>
       <c r="BJ15" s="3">
         <v>0</v>
@@ -10877,11 +10881,11 @@
       <c r="CG15" s="6">
         <v>0</v>
       </c>
-      <c r="CH15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI15" s="6" t="s">
-        <v>2</v>
+      <c r="CH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="6">
+        <v>0</v>
       </c>
       <c r="CJ15" s="7">
         <v>28511.17</v>
@@ -10905,13 +10909,13 @@
         <v>11275.56</v>
       </c>
       <c r="CQ15" s="9">
-        <v>-4773.76</v>
+        <v>4773.76</v>
       </c>
       <c r="CR15" s="10">
         <v>30.93</v>
       </c>
-      <c r="CS15" s="6" t="s">
-        <v>2</v>
+      <c r="CS15" s="6">
+        <v>0</v>
       </c>
       <c r="CT15" s="14">
         <v>37096.26</v>
@@ -10972,8 +10976,8 @@
       <c r="R16" s="20">
         <v>538.62</v>
       </c>
-      <c r="S16" s="24" t="s">
-        <v>2</v>
+      <c r="S16" s="24">
+        <v>0</v>
       </c>
       <c r="T16" s="20">
         <v>710.86</v>
@@ -11020,11 +11024,11 @@
       <c r="AH16" s="20">
         <v>42.75</v>
       </c>
-      <c r="AI16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ16" s="20" t="s">
-        <v>2</v>
+      <c r="AI16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="20">
+        <v>0</v>
       </c>
       <c r="AK16" s="22">
         <v>26780.95</v>
@@ -11032,11 +11036,11 @@
       <c r="AL16" s="23">
         <v>11253.03</v>
       </c>
-      <c r="AM16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN16" s="20" t="s">
-        <v>2</v>
+      <c r="AM16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="20">
+        <v>0</v>
       </c>
       <c r="AO16" s="24">
         <v>0</v>
@@ -11044,17 +11048,17 @@
       <c r="AP16" s="23">
         <v>2868.16</v>
       </c>
-      <c r="AQ16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT16" s="20" t="s">
-        <v>2</v>
+      <c r="AQ16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="20">
+        <v>0</v>
       </c>
       <c r="AU16" s="22">
         <v>2379.5500000000002</v>
@@ -11098,8 +11102,8 @@
       <c r="BH16" s="20">
         <v>72.63</v>
       </c>
-      <c r="BI16" s="24" t="s">
-        <v>2</v>
+      <c r="BI16" s="24">
+        <v>0</v>
       </c>
       <c r="BJ16" s="20">
         <v>55</v>
@@ -11173,11 +11177,11 @@
       <c r="CG16" s="24">
         <v>0</v>
       </c>
-      <c r="CH16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI16" s="24" t="s">
-        <v>2</v>
+      <c r="CH16" s="20">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="24">
+        <v>0</v>
       </c>
       <c r="CJ16" s="23">
         <v>28511.17</v>
@@ -11201,13 +11205,13 @@
         <v>1512.1</v>
       </c>
       <c r="CQ16" s="26">
-        <v>-6285.86</v>
+        <v>6285.86</v>
       </c>
       <c r="CR16" s="27">
         <v>317.94</v>
       </c>
-      <c r="CS16" s="24" t="s">
-        <v>2</v>
+      <c r="CS16" s="24">
+        <v>0</v>
       </c>
       <c r="CT16" s="30">
         <v>26107.72</v>
